--- a/RequestVersusDataLimiet.xlsx
+++ b/RequestVersusDataLimiet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Bij 10.000 MB" sheetId="1" r:id="rId1"/>
     <sheet name="By 20.000 MB" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Request versus Data Limiet</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Totaal Requests</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -437,21 +443,21 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -521,36 +527,36 @@
         <v>125</v>
       </c>
       <c r="D4" s="9">
-        <f>A4*B4*C4</f>
+        <f t="shared" ref="D4:D13" si="0">A4*B4*C4</f>
         <v>387500</v>
       </c>
       <c r="E4" s="10">
-        <f>D4*$B$2</f>
+        <f t="shared" ref="E4:E13" si="1">D4*$B$2</f>
         <v>7936000000</v>
       </c>
       <c r="F4" s="5">
-        <f>E4/(1024*1024)</f>
+        <f t="shared" ref="F4:F13" si="2">E4/(1024*1024)</f>
         <v>7568.359375</v>
       </c>
       <c r="G4" s="5">
-        <f>E4/(1024*1024*1024)</f>
+        <f t="shared" ref="G4:G13" si="3">E4/(1024*1024*1024)</f>
         <v>7.3909759521484375</v>
       </c>
       <c r="H4" s="5">
         <v>10000</v>
       </c>
       <c r="I4" s="5">
-        <f>H4*1024*1024</f>
+        <f t="shared" ref="I4:I13" si="4">H4*1024*1024</f>
         <v>10485760000</v>
       </c>
       <c r="J4" s="10">
-        <f>I4/$B$2</f>
+        <f t="shared" ref="J4:J13" si="5">I4/$B$2</f>
         <v>512000</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="B5" s="9">
         <v>25</v>
@@ -559,30 +565,30 @@
         <v>125</v>
       </c>
       <c r="D5" s="9">
-        <f>A5*B5*C5</f>
-        <v>312500</v>
+        <f t="shared" si="0"/>
+        <v>937500</v>
       </c>
       <c r="E5" s="10">
-        <f>D5*$B$2</f>
-        <v>6400000000</v>
+        <f t="shared" si="1"/>
+        <v>19200000000</v>
       </c>
       <c r="F5" s="5">
-        <f>E5/(1024*1024)</f>
-        <v>6103.515625</v>
+        <f t="shared" si="2"/>
+        <v>18310.546875</v>
       </c>
       <c r="G5" s="5">
-        <f>E5/(1024*1024*1024)</f>
-        <v>5.9604644775390625</v>
+        <f t="shared" si="3"/>
+        <v>17.881393432617188</v>
       </c>
       <c r="H5" s="5">
         <v>10000</v>
       </c>
       <c r="I5" s="5">
-        <f>H5*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J5" s="10">
-        <f>I5/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
@@ -597,30 +603,30 @@
         <v>125</v>
       </c>
       <c r="D6" s="9">
-        <f>A6*B6*C6</f>
+        <f t="shared" si="0"/>
         <v>250000</v>
       </c>
       <c r="E6" s="10">
-        <f>D6*$B$2</f>
+        <f t="shared" si="1"/>
         <v>5120000000</v>
       </c>
       <c r="F6" s="5">
-        <f>E6/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>4882.8125</v>
       </c>
       <c r="G6" s="5">
-        <f>E6/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>4.76837158203125</v>
       </c>
       <c r="H6" s="5">
         <v>10000</v>
       </c>
       <c r="I6" s="5">
-        <f>H6*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J6" s="10">
-        <f>I6/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
@@ -635,36 +641,36 @@
         <v>125</v>
       </c>
       <c r="D7" s="9">
-        <f>A7*B7*C7</f>
+        <f t="shared" si="0"/>
         <v>187500</v>
       </c>
       <c r="E7" s="10">
-        <f>D7*$B$2</f>
+        <f t="shared" si="1"/>
         <v>3840000000</v>
       </c>
       <c r="F7" s="5">
-        <f>E7/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>3662.109375</v>
       </c>
       <c r="G7" s="5">
-        <f>E7/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>3.5762786865234375</v>
       </c>
       <c r="H7" s="5">
         <v>10000</v>
       </c>
       <c r="I7" s="5">
-        <f>H7*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J7" s="10">
-        <f>I7/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>100</v>
+      <c r="A8" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="9">
         <v>10</v>
@@ -672,31 +678,31 @@
       <c r="C8" s="9">
         <v>125</v>
       </c>
-      <c r="D8" s="9">
-        <f>A8*B8*C8</f>
-        <v>125000</v>
-      </c>
-      <c r="E8" s="10">
-        <f>D8*$B$2</f>
-        <v>2560000000</v>
-      </c>
-      <c r="F8" s="5">
-        <f>E8/(1024*1024)</f>
-        <v>2441.40625</v>
-      </c>
-      <c r="G8" s="5">
-        <f>E8/(1024*1024*1024)</f>
-        <v>2.384185791015625</v>
+      <c r="D8" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H8" s="5">
         <v>10000</v>
       </c>
       <c r="I8" s="5">
-        <f>H8*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J8" s="10">
-        <f>I8/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
@@ -711,36 +717,36 @@
         <v>125</v>
       </c>
       <c r="D9" s="9">
-        <f>A9*B9*C9</f>
+        <f t="shared" si="0"/>
         <v>62500</v>
       </c>
       <c r="E9" s="10">
-        <f>D9*$B$2</f>
+        <f t="shared" si="1"/>
         <v>1280000000</v>
       </c>
       <c r="F9" s="5">
-        <f>E9/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>1220.703125</v>
       </c>
       <c r="G9" s="5">
-        <f>E9/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>1.1920928955078125</v>
       </c>
       <c r="H9" s="5">
         <v>10000</v>
       </c>
       <c r="I9" s="5">
-        <f>H9*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J9" s="10">
-        <f>I9/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>100</v>
+      <c r="A10" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -748,31 +754,31 @@
       <c r="C10" s="9">
         <v>125</v>
       </c>
-      <c r="D10" s="9">
-        <f>A10*B10*C10</f>
-        <v>12500</v>
-      </c>
-      <c r="E10" s="10">
-        <f>D10*$B$2</f>
-        <v>256000000</v>
-      </c>
-      <c r="F10" s="5">
-        <f>E10/(1024*1024)</f>
-        <v>244.140625</v>
-      </c>
-      <c r="G10" s="5">
-        <f>E10/(1024*1024*1024)</f>
-        <v>0.2384185791015625</v>
+      <c r="D10" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H10" s="5">
         <v>10000</v>
       </c>
       <c r="I10" s="5">
-        <f>H10*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J10" s="10">
-        <f>I10/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
@@ -787,30 +793,30 @@
         <v>125</v>
       </c>
       <c r="D11">
-        <f>A11*B11*C11</f>
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="E11" s="3">
-        <f>D11*$B$2</f>
+        <f t="shared" si="1"/>
         <v>10240000000</v>
       </c>
       <c r="F11" s="1">
-        <f>E11/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>9765.625</v>
       </c>
       <c r="G11" s="6">
-        <f>E11/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>9.5367431640625</v>
       </c>
       <c r="H11" s="1">
         <v>10000</v>
       </c>
       <c r="I11" s="1">
-        <f>H11*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J11" s="3">
-        <f>I11/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
@@ -825,30 +831,30 @@
         <v>200</v>
       </c>
       <c r="D12" s="7">
-        <f>A12*B12*C12</f>
+        <f t="shared" si="0"/>
         <v>400000</v>
       </c>
       <c r="E12" s="8">
-        <f>D12*$B$2</f>
+        <f t="shared" si="1"/>
         <v>8192000000</v>
       </c>
       <c r="F12" s="6">
-        <f>E12/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>7812.5</v>
       </c>
       <c r="G12" s="6">
-        <f>E12/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>7.62939453125</v>
       </c>
       <c r="H12" s="6">
         <v>10000</v>
       </c>
       <c r="I12" s="6">
-        <f>H12*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J12" s="8">
-        <f>I12/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
@@ -863,30 +869,30 @@
         <v>300</v>
       </c>
       <c r="D13" s="11">
-        <f>A13*B13*C13</f>
+        <f t="shared" si="0"/>
         <v>600000</v>
       </c>
       <c r="E13" s="12">
-        <f>D13*$B$2</f>
+        <f t="shared" si="1"/>
         <v>12288000000</v>
       </c>
       <c r="F13" s="13">
-        <f>E13/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>11718.75</v>
       </c>
       <c r="G13" s="13">
-        <f>E13/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>11.444091796875</v>
       </c>
       <c r="H13" s="13">
         <v>10000</v>
       </c>
       <c r="I13" s="13">
-        <f>H13*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>10485760000</v>
       </c>
       <c r="J13" s="12">
-        <f>I13/$B$2</f>
+        <f t="shared" si="5"/>
         <v>512000</v>
       </c>
     </row>
@@ -901,30 +907,30 @@
         <v>125</v>
       </c>
       <c r="D16" s="11">
-        <f>A16*B16*C16</f>
+        <f t="shared" ref="D16:D23" si="6">A16*B16*C16</f>
         <v>775000</v>
       </c>
       <c r="E16" s="12">
-        <f>D16*$B$2</f>
+        <f t="shared" ref="E16:E23" si="7">D16*$B$2</f>
         <v>15872000000</v>
       </c>
       <c r="F16" s="13">
-        <f>E16/(1024*1024)</f>
+        <f t="shared" ref="F16:F23" si="8">E16/(1024*1024)</f>
         <v>15136.71875</v>
       </c>
       <c r="G16" s="13">
-        <f>E16/(1024*1024*1024)</f>
+        <f t="shared" ref="G16:G23" si="9">E16/(1024*1024*1024)</f>
         <v>14.781951904296875</v>
       </c>
       <c r="H16" s="13">
         <v>10000</v>
       </c>
       <c r="I16" s="13">
-        <f>H16*1024*1024</f>
+        <f t="shared" ref="I16:I23" si="10">H16*1024*1024</f>
         <v>10485760000</v>
       </c>
       <c r="J16" s="12">
-        <f>I16/$B$2</f>
+        <f t="shared" ref="J16:J23" si="11">I16/$B$2</f>
         <v>512000</v>
       </c>
     </row>
@@ -939,30 +945,30 @@
         <v>125</v>
       </c>
       <c r="D17" s="11">
-        <f>A17*B17*C17</f>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="E17" s="12">
-        <f>D17*$B$2</f>
+        <f t="shared" si="7"/>
         <v>12800000000</v>
       </c>
       <c r="F17" s="13">
-        <f>E17/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>12207.03125</v>
       </c>
       <c r="G17" s="13">
-        <f>E17/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>11.920928955078125</v>
       </c>
       <c r="H17" s="13">
         <v>10000</v>
       </c>
       <c r="I17" s="13">
-        <f>H17*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>10485760000</v>
       </c>
       <c r="J17" s="12">
-        <f>I17/$B$2</f>
+        <f t="shared" si="11"/>
         <v>512000</v>
       </c>
     </row>
@@ -977,30 +983,30 @@
         <v>125</v>
       </c>
       <c r="D18">
-        <f>A18*B18*C18</f>
+        <f t="shared" si="6"/>
         <v>500000</v>
       </c>
       <c r="E18" s="3">
-        <f>D18*$B$2</f>
+        <f t="shared" si="7"/>
         <v>10240000000</v>
       </c>
       <c r="F18" s="1">
-        <f>E18/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>9765.625</v>
       </c>
       <c r="G18" s="6">
-        <f>E18/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>9.5367431640625</v>
       </c>
       <c r="H18" s="1">
         <v>10000</v>
       </c>
       <c r="I18" s="1">
-        <f>H18*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>10485760000</v>
       </c>
       <c r="J18" s="3">
-        <f>I18/$B$2</f>
+        <f t="shared" si="11"/>
         <v>512000</v>
       </c>
     </row>
@@ -1015,30 +1021,30 @@
         <v>125</v>
       </c>
       <c r="D19">
-        <f>A19*B19*C19</f>
+        <f t="shared" si="6"/>
         <v>375000</v>
       </c>
       <c r="E19" s="3">
-        <f>D19*$B$2</f>
+        <f t="shared" si="7"/>
         <v>7680000000</v>
       </c>
       <c r="F19" s="1">
-        <f>E19/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>7324.21875</v>
       </c>
       <c r="G19" s="6">
-        <f>E19/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>7.152557373046875</v>
       </c>
       <c r="H19" s="1">
         <v>10000</v>
       </c>
       <c r="I19" s="1">
-        <f>H19*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>10485760000</v>
       </c>
       <c r="J19" s="3">
-        <f>I19/$B$2</f>
+        <f t="shared" si="11"/>
         <v>512000</v>
       </c>
     </row>
@@ -1053,30 +1059,30 @@
         <v>125</v>
       </c>
       <c r="D20">
-        <f>A20*B20*C20</f>
+        <f t="shared" si="6"/>
         <v>250000</v>
       </c>
       <c r="E20" s="3">
-        <f>D20*$B$2</f>
+        <f t="shared" si="7"/>
         <v>5120000000</v>
       </c>
       <c r="F20" s="1">
-        <f>E20/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>4882.8125</v>
       </c>
       <c r="G20" s="6">
-        <f>E20/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>4.76837158203125</v>
       </c>
       <c r="H20" s="1">
         <v>10000</v>
       </c>
       <c r="I20" s="1">
-        <f>H20*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>10485760000</v>
       </c>
       <c r="J20" s="3">
-        <f>I20/$B$2</f>
+        <f t="shared" si="11"/>
         <v>512000</v>
       </c>
     </row>
@@ -1091,30 +1097,30 @@
         <v>125</v>
       </c>
       <c r="D21">
-        <f>A21*B21*C21</f>
+        <f t="shared" si="6"/>
         <v>125000</v>
       </c>
       <c r="E21" s="3">
-        <f>D21*$B$2</f>
+        <f t="shared" si="7"/>
         <v>2560000000</v>
       </c>
       <c r="F21" s="1">
-        <f>E21/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>2441.40625</v>
       </c>
       <c r="G21" s="6">
-        <f>E21/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>2.384185791015625</v>
       </c>
       <c r="H21" s="1">
         <v>10000</v>
       </c>
       <c r="I21" s="1">
-        <f>H21*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>10485760000</v>
       </c>
       <c r="J21" s="3">
-        <f>I21/$B$2</f>
+        <f t="shared" si="11"/>
         <v>512000</v>
       </c>
     </row>
@@ -1129,30 +1135,30 @@
         <v>125</v>
       </c>
       <c r="D22">
-        <f>A22*B22*C22</f>
+        <f t="shared" si="6"/>
         <v>25000</v>
       </c>
       <c r="E22" s="3">
-        <f>D22*$B$2</f>
+        <f t="shared" si="7"/>
         <v>512000000</v>
       </c>
       <c r="F22" s="1">
-        <f>E22/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>488.28125</v>
       </c>
       <c r="G22" s="6">
-        <f>E22/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>0.476837158203125</v>
       </c>
       <c r="H22" s="1">
         <v>10000</v>
       </c>
       <c r="I22" s="1">
-        <f>H22*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>10485760000</v>
       </c>
       <c r="J22" s="3">
-        <f>I22/$B$2</f>
+        <f t="shared" si="11"/>
         <v>512000</v>
       </c>
     </row>
@@ -1167,30 +1173,30 @@
         <v>125</v>
       </c>
       <c r="D23">
-        <f>A23*B23*C23</f>
+        <f t="shared" si="6"/>
         <v>500000</v>
       </c>
       <c r="E23" s="3">
-        <f>D23*$B$2</f>
+        <f t="shared" si="7"/>
         <v>10240000000</v>
       </c>
       <c r="F23" s="1">
-        <f>E23/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>9765.625</v>
       </c>
       <c r="G23" s="6">
-        <f>E23/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>9.5367431640625</v>
       </c>
       <c r="H23" s="1">
         <v>10000</v>
       </c>
       <c r="I23" s="1">
-        <f>H23*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>10485760000</v>
       </c>
       <c r="J23" s="3">
-        <f>I23/$B$2</f>
+        <f t="shared" si="11"/>
         <v>512000</v>
       </c>
     </row>
@@ -1211,25 +1217,25 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1255,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1292,34 +1298,34 @@
         <v>125</v>
       </c>
       <c r="D4" s="3">
-        <f>A4*B4*C4</f>
+        <f t="shared" ref="D4:D11" si="0">A4*B4*C4</f>
         <v>387500</v>
       </c>
       <c r="E4" s="3">
-        <f>D4*$B$2</f>
+        <f t="shared" ref="E4:E11" si="1">D4*$B$2</f>
         <v>7936000000</v>
       </c>
       <c r="F4" s="1">
-        <f>E4/(1024*1024)</f>
+        <f t="shared" ref="F4:F11" si="2">E4/(1024*1024)</f>
         <v>7568.359375</v>
       </c>
       <c r="G4" s="6">
-        <f>E4/(1024*1024*1024)</f>
+        <f t="shared" ref="G4:G11" si="3">E4/(1024*1024*1024)</f>
         <v>7.3909759521484375</v>
       </c>
       <c r="H4" s="3">
         <v>20000</v>
       </c>
       <c r="I4" s="1">
-        <f>H4*1024*1024</f>
+        <f t="shared" ref="I4:I11" si="4">H4*1024*1024</f>
         <v>20971520000</v>
       </c>
       <c r="J4" s="3">
-        <f>I4/$B$2</f>
+        <f t="shared" ref="J4:J11" si="5">I4/$B$2</f>
         <v>1024000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1330,34 +1336,34 @@
         <v>125</v>
       </c>
       <c r="D5" s="3">
-        <f>A5*B5*C5</f>
+        <f t="shared" si="0"/>
         <v>312500</v>
       </c>
       <c r="E5" s="3">
-        <f>D5*$B$2</f>
+        <f t="shared" si="1"/>
         <v>6400000000</v>
       </c>
       <c r="F5" s="1">
-        <f>E5/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>6103.515625</v>
       </c>
       <c r="G5" s="6">
-        <f>E5/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>5.9604644775390625</v>
       </c>
       <c r="H5" s="3">
         <v>20000</v>
       </c>
       <c r="I5" s="1">
-        <f>H5*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>20971520000</v>
       </c>
       <c r="J5" s="3">
-        <f>I5/$B$2</f>
+        <f t="shared" si="5"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1368,34 +1374,34 @@
         <v>125</v>
       </c>
       <c r="D6" s="3">
-        <f>A6*B6*C6</f>
+        <f t="shared" si="0"/>
         <v>250000</v>
       </c>
       <c r="E6" s="3">
-        <f>D6*$B$2</f>
+        <f t="shared" si="1"/>
         <v>5120000000</v>
       </c>
       <c r="F6" s="1">
-        <f>E6/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>4882.8125</v>
       </c>
       <c r="G6" s="6">
-        <f>E6/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>4.76837158203125</v>
       </c>
       <c r="H6" s="3">
         <v>20000</v>
       </c>
       <c r="I6" s="1">
-        <f>H6*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>20971520000</v>
       </c>
       <c r="J6" s="3">
-        <f>I6/$B$2</f>
+        <f t="shared" si="5"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1406,34 +1412,34 @@
         <v>125</v>
       </c>
       <c r="D7" s="3">
-        <f>A7*B7*C7</f>
+        <f t="shared" si="0"/>
         <v>187500</v>
       </c>
       <c r="E7" s="3">
-        <f>D7*$B$2</f>
+        <f t="shared" si="1"/>
         <v>3840000000</v>
       </c>
       <c r="F7" s="1">
-        <f>E7/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>3662.109375</v>
       </c>
       <c r="G7" s="6">
-        <f>E7/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>3.5762786865234375</v>
       </c>
       <c r="H7" s="3">
         <v>20000</v>
       </c>
       <c r="I7" s="1">
-        <f>H7*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>20971520000</v>
       </c>
       <c r="J7" s="3">
-        <f>I7/$B$2</f>
+        <f t="shared" si="5"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1444,34 +1450,34 @@
         <v>125</v>
       </c>
       <c r="D8" s="3">
-        <f>A8*B8*C8</f>
+        <f t="shared" si="0"/>
         <v>125000</v>
       </c>
       <c r="E8" s="3">
-        <f>D8*$B$2</f>
+        <f t="shared" si="1"/>
         <v>2560000000</v>
       </c>
       <c r="F8" s="1">
-        <f>E8/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>2441.40625</v>
       </c>
       <c r="G8" s="6">
-        <f>E8/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>2.384185791015625</v>
       </c>
       <c r="H8" s="3">
         <v>20000</v>
       </c>
       <c r="I8" s="1">
-        <f>H8*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>20971520000</v>
       </c>
       <c r="J8" s="3">
-        <f>I8/$B$2</f>
+        <f t="shared" si="5"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1482,34 +1488,34 @@
         <v>125</v>
       </c>
       <c r="D9" s="3">
-        <f>A9*B9*C9</f>
+        <f t="shared" si="0"/>
         <v>62500</v>
       </c>
       <c r="E9" s="3">
-        <f>D9*$B$2</f>
+        <f t="shared" si="1"/>
         <v>1280000000</v>
       </c>
       <c r="F9" s="1">
-        <f>E9/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>1220.703125</v>
       </c>
       <c r="G9" s="6">
-        <f>E9/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>1.1920928955078125</v>
       </c>
       <c r="H9" s="3">
         <v>20000</v>
       </c>
       <c r="I9" s="1">
-        <f>H9*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>20971520000</v>
       </c>
       <c r="J9" s="3">
-        <f>I9/$B$2</f>
+        <f t="shared" si="5"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -1520,34 +1526,34 @@
         <v>125</v>
       </c>
       <c r="D10" s="3">
-        <f>A10*B10*C10</f>
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="E10" s="3">
-        <f>D10*$B$2</f>
+        <f t="shared" si="1"/>
         <v>256000000</v>
       </c>
       <c r="F10" s="1">
-        <f>E10/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>244.140625</v>
       </c>
       <c r="G10" s="6">
-        <f>E10/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>0.2384185791015625</v>
       </c>
       <c r="H10" s="3">
         <v>20000</v>
       </c>
       <c r="I10" s="1">
-        <f>H10*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>20971520000</v>
       </c>
       <c r="J10" s="3">
-        <f>I10/$B$2</f>
+        <f t="shared" si="5"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>200</v>
       </c>
@@ -1558,34 +1564,34 @@
         <v>125</v>
       </c>
       <c r="D11" s="3">
-        <f>A11*B11*C11</f>
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="E11" s="3">
-        <f>D11*$B$2</f>
+        <f t="shared" si="1"/>
         <v>10240000000</v>
       </c>
       <c r="F11" s="1">
-        <f>E11/(1024*1024)</f>
+        <f t="shared" si="2"/>
         <v>9765.625</v>
       </c>
       <c r="G11" s="6">
-        <f>E11/(1024*1024*1024)</f>
+        <f t="shared" si="3"/>
         <v>9.5367431640625</v>
       </c>
       <c r="H11" s="3">
         <v>20000</v>
       </c>
       <c r="I11" s="1">
-        <f>H11*1024*1024</f>
+        <f t="shared" si="4"/>
         <v>20971520000</v>
       </c>
       <c r="J11" s="3">
-        <f>I11/$B$2</f>
+        <f t="shared" si="5"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>200</v>
       </c>
@@ -1596,34 +1602,34 @@
         <v>125</v>
       </c>
       <c r="D14" s="3">
-        <f>A14*B14*C14</f>
+        <f t="shared" ref="D14:D21" si="6">A14*B14*C14</f>
         <v>775000</v>
       </c>
       <c r="E14" s="3">
-        <f>D14*$B$2</f>
+        <f t="shared" ref="E14:E21" si="7">D14*$B$2</f>
         <v>15872000000</v>
       </c>
       <c r="F14" s="1">
-        <f>E14/(1024*1024)</f>
+        <f t="shared" ref="F14:F21" si="8">E14/(1024*1024)</f>
         <v>15136.71875</v>
       </c>
       <c r="G14" s="6">
-        <f>E14/(1024*1024*1024)</f>
+        <f t="shared" ref="G14:G21" si="9">E14/(1024*1024*1024)</f>
         <v>14.781951904296875</v>
       </c>
       <c r="H14" s="3">
         <v>20000</v>
       </c>
       <c r="I14" s="1">
-        <f>H14*1024*1024</f>
+        <f t="shared" ref="I14:I21" si="10">H14*1024*1024</f>
         <v>20971520000</v>
       </c>
       <c r="J14" s="3">
-        <f>I14/$B$2</f>
+        <f t="shared" ref="J14:J21" si="11">I14/$B$2</f>
         <v>1024000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200</v>
       </c>
@@ -1634,34 +1640,34 @@
         <v>125</v>
       </c>
       <c r="D15" s="3">
-        <f>A15*B15*C15</f>
+        <f t="shared" si="6"/>
         <v>625000</v>
       </c>
       <c r="E15" s="3">
-        <f>D15*$B$2</f>
+        <f t="shared" si="7"/>
         <v>12800000000</v>
       </c>
       <c r="F15" s="1">
-        <f>E15/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>12207.03125</v>
       </c>
       <c r="G15" s="6">
-        <f>E15/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>11.920928955078125</v>
       </c>
       <c r="H15" s="3">
         <v>20000</v>
       </c>
       <c r="I15" s="1">
-        <f>H15*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>20971520000</v>
       </c>
       <c r="J15" s="3">
-        <f>I15/$B$2</f>
+        <f t="shared" si="11"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>200</v>
       </c>
@@ -1672,34 +1678,34 @@
         <v>125</v>
       </c>
       <c r="D16" s="3">
-        <f>A16*B16*C16</f>
+        <f t="shared" si="6"/>
         <v>500000</v>
       </c>
       <c r="E16" s="3">
-        <f>D16*$B$2</f>
+        <f t="shared" si="7"/>
         <v>10240000000</v>
       </c>
       <c r="F16" s="1">
-        <f>E16/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>9765.625</v>
       </c>
       <c r="G16" s="6">
-        <f>E16/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>9.5367431640625</v>
       </c>
       <c r="H16" s="3">
         <v>20000</v>
       </c>
       <c r="I16" s="1">
-        <f>H16*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>20971520000</v>
       </c>
       <c r="J16" s="3">
-        <f>I16/$B$2</f>
+        <f t="shared" si="11"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200</v>
       </c>
@@ -1710,34 +1716,34 @@
         <v>125</v>
       </c>
       <c r="D17" s="3">
-        <f>A17*B17*C17</f>
+        <f t="shared" si="6"/>
         <v>375000</v>
       </c>
       <c r="E17" s="3">
-        <f>D17*$B$2</f>
+        <f t="shared" si="7"/>
         <v>7680000000</v>
       </c>
       <c r="F17" s="1">
-        <f>E17/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>7324.21875</v>
       </c>
       <c r="G17" s="6">
-        <f>E17/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>7.152557373046875</v>
       </c>
       <c r="H17" s="3">
         <v>20000</v>
       </c>
       <c r="I17" s="1">
-        <f>H17*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>20971520000</v>
       </c>
       <c r="J17" s="3">
-        <f>I17/$B$2</f>
+        <f t="shared" si="11"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>200</v>
       </c>
@@ -1748,34 +1754,34 @@
         <v>125</v>
       </c>
       <c r="D18" s="3">
-        <f>A18*B18*C18</f>
+        <f t="shared" si="6"/>
         <v>250000</v>
       </c>
       <c r="E18" s="3">
-        <f>D18*$B$2</f>
+        <f t="shared" si="7"/>
         <v>5120000000</v>
       </c>
       <c r="F18" s="1">
-        <f>E18/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>4882.8125</v>
       </c>
       <c r="G18" s="6">
-        <f>E18/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>4.76837158203125</v>
       </c>
       <c r="H18" s="3">
         <v>20000</v>
       </c>
       <c r="I18" s="1">
-        <f>H18*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>20971520000</v>
       </c>
       <c r="J18" s="3">
-        <f>I18/$B$2</f>
+        <f t="shared" si="11"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200</v>
       </c>
@@ -1786,34 +1792,34 @@
         <v>125</v>
       </c>
       <c r="D19" s="3">
-        <f>A19*B19*C19</f>
+        <f t="shared" si="6"/>
         <v>125000</v>
       </c>
       <c r="E19" s="3">
-        <f>D19*$B$2</f>
+        <f t="shared" si="7"/>
         <v>2560000000</v>
       </c>
       <c r="F19" s="1">
-        <f>E19/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>2441.40625</v>
       </c>
       <c r="G19" s="6">
-        <f>E19/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>2.384185791015625</v>
       </c>
       <c r="H19" s="3">
         <v>20000</v>
       </c>
       <c r="I19" s="1">
-        <f>H19*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>20971520000</v>
       </c>
       <c r="J19" s="3">
-        <f>I19/$B$2</f>
+        <f t="shared" si="11"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200</v>
       </c>
@@ -1824,34 +1830,34 @@
         <v>125</v>
       </c>
       <c r="D20" s="3">
-        <f>A20*B20*C20</f>
+        <f t="shared" si="6"/>
         <v>25000</v>
       </c>
       <c r="E20" s="3">
-        <f>D20*$B$2</f>
+        <f t="shared" si="7"/>
         <v>512000000</v>
       </c>
       <c r="F20" s="1">
-        <f>E20/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>488.28125</v>
       </c>
       <c r="G20" s="6">
-        <f>E20/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>0.476837158203125</v>
       </c>
       <c r="H20" s="3">
         <v>20000</v>
       </c>
       <c r="I20" s="1">
-        <f>H20*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>20971520000</v>
       </c>
       <c r="J20" s="3">
-        <f>I20/$B$2</f>
+        <f t="shared" si="11"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200</v>
       </c>
@@ -1862,34 +1868,34 @@
         <v>125</v>
       </c>
       <c r="D21" s="3">
-        <f>A21*B21*C21</f>
+        <f t="shared" si="6"/>
         <v>500000</v>
       </c>
       <c r="E21" s="3">
-        <f>D21*$B$2</f>
+        <f t="shared" si="7"/>
         <v>10240000000</v>
       </c>
       <c r="F21" s="1">
-        <f>E21/(1024*1024)</f>
+        <f t="shared" si="8"/>
         <v>9765.625</v>
       </c>
       <c r="G21" s="6">
-        <f>E21/(1024*1024*1024)</f>
+        <f t="shared" si="9"/>
         <v>9.5367431640625</v>
       </c>
       <c r="H21" s="3">
         <v>20000</v>
       </c>
       <c r="I21" s="1">
-        <f>H21*1024*1024</f>
+        <f t="shared" si="10"/>
         <v>20971520000</v>
       </c>
       <c r="J21" s="3">
-        <f>I21/$B$2</f>
+        <f t="shared" si="11"/>
         <v>1024000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>250</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>100</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>100</v>
       </c>
@@ -2053,7 +2059,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RequestVersusDataLimiet.xlsx
+++ b/RequestVersusDataLimiet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Request versus Data Limiet</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>asd</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,8 +1014,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>200</v>
+      <c r="A19" t="s">
+        <v>16</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -1020,21 +1023,21 @@
       <c r="C19">
         <v>125</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="e">
         <f t="shared" si="6"/>
-        <v>375000</v>
-      </c>
-      <c r="E19" s="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="3" t="e">
         <f t="shared" si="7"/>
-        <v>7680000000</v>
-      </c>
-      <c r="F19" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="1" t="e">
         <f t="shared" si="8"/>
-        <v>7324.21875</v>
-      </c>
-      <c r="G19" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="6" t="e">
         <f t="shared" si="9"/>
-        <v>7.152557373046875</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H19" s="1">
         <v>10000</v>
@@ -1087,8 +1090,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>200</v>
+      <c r="A21" t="s">
+        <v>16</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1096,21 +1099,21 @@
       <c r="C21">
         <v>125</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="e">
         <f t="shared" si="6"/>
-        <v>125000</v>
-      </c>
-      <c r="E21" s="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="3" t="e">
         <f t="shared" si="7"/>
-        <v>2560000000</v>
-      </c>
-      <c r="F21" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="1" t="e">
         <f t="shared" si="8"/>
-        <v>2441.40625</v>
-      </c>
-      <c r="G21" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="6" t="e">
         <f t="shared" si="9"/>
-        <v>2.384185791015625</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H21" s="1">
         <v>10000</v>
@@ -1163,8 +1166,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>200</v>
+      <c r="A23" t="s">
+        <v>16</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -1172,21 +1175,21 @@
       <c r="C23">
         <v>125</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="e">
         <f t="shared" si="6"/>
-        <v>500000</v>
-      </c>
-      <c r="E23" s="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="3" t="e">
         <f t="shared" si="7"/>
-        <v>10240000000</v>
-      </c>
-      <c r="F23" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="1" t="e">
         <f t="shared" si="8"/>
-        <v>9765.625</v>
-      </c>
-      <c r="G23" s="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="6" t="e">
         <f t="shared" si="9"/>
-        <v>9.5367431640625</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H23" s="1">
         <v>10000</v>
